--- a/med/excel_files/Kliniki.xlsx
+++ b/med/excel_files/Kliniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dns\PycharmProjects\kursach3\medical-app-Artem\medical-app\med\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE256E3-1A44-471C-ACB6-8999036B32BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C256000-6329-497C-8E18-2849B7B255B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{CBC7611D-850F-4B77-A41F-F48481A403FA}"/>
+    <workbookView xWindow="735" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{CBC7611D-850F-4B77-A41F-F48481A403FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>id[pk]</t>
   </si>
@@ -224,6 +224,132 @@
   </si>
   <si>
     <t>Лечебно-диагностический центр предоставляет услуги терапевта, кардиолога, невролога, хирурга, дерматолога, нарколога</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>+79151928101</t>
+  </si>
+  <si>
+    <t>+79155508132</t>
+  </si>
+  <si>
+    <t>+79155030200</t>
+  </si>
+  <si>
+    <t>+79153378685</t>
+  </si>
+  <si>
+    <t>+79106919110</t>
+  </si>
+  <si>
+    <t>+79101051074</t>
+  </si>
+  <si>
+    <t>+79103660922</t>
+  </si>
+  <si>
+    <t>+79105438920</t>
+  </si>
+  <si>
+    <t>+79101143355</t>
+  </si>
+  <si>
+    <t>+79647631486</t>
+  </si>
+  <si>
+    <t>+79640713342</t>
+  </si>
+  <si>
+    <t>+79645841311</t>
+  </si>
+  <si>
+    <t>+79647356434</t>
+  </si>
+  <si>
+    <t>+79649733604</t>
+  </si>
+  <si>
+    <t>+79608860933</t>
+  </si>
+  <si>
+    <t>+79602618386</t>
+  </si>
+  <si>
+    <t>+79605117621</t>
+  </si>
+  <si>
+    <t>+79605496818</t>
+  </si>
+  <si>
+    <t>+79157842176</t>
+  </si>
+  <si>
+    <t>i8ovxn2f@gmail.com</t>
+  </si>
+  <si>
+    <t>q4as80@outlook.com</t>
+  </si>
+  <si>
+    <t>opu@outlook.com</t>
+  </si>
+  <si>
+    <t>5iar3l8k@yandex.ru</t>
+  </si>
+  <si>
+    <t>4zegxla@mail.ru</t>
+  </si>
+  <si>
+    <t>8lf0g@yandex.ru</t>
+  </si>
+  <si>
+    <t>1zx8@yandex.ru</t>
+  </si>
+  <si>
+    <t>x@mail.ru</t>
+  </si>
+  <si>
+    <t>34d@gmail.com</t>
+  </si>
+  <si>
+    <t>pxacl@mail.ru</t>
+  </si>
+  <si>
+    <t>7o1@gmail.com</t>
+  </si>
+  <si>
+    <t>1@gmail.com</t>
+  </si>
+  <si>
+    <t>iut@gmail.com</t>
+  </si>
+  <si>
+    <t>e3t@outlook.com</t>
+  </si>
+  <si>
+    <t>41clb6o2g@yandex.ru</t>
+  </si>
+  <si>
+    <t>5hsbm8pi3@mail.ru</t>
+  </si>
+  <si>
+    <t>dihf8jxk@gmail.com</t>
+  </si>
+  <si>
+    <t>dwej@yandex.ru</t>
+  </si>
+  <si>
+    <t>zyue8brv@outlook.com</t>
+  </si>
+  <si>
+    <t>0a5437@mail.ru</t>
   </si>
   <si>
     <t>Название клиники</t>
@@ -233,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +411,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,10 +438,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,8 +466,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,26 +785,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75DADE-50F2-4E5A-806A-CA46FC59FC37}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="92.7109375" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="110.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -672,9 +815,17 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -687,8 +838,17 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>16114486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -701,8 +861,17 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>10338277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -715,8 +884,17 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>99076314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -729,8 +907,17 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>99535555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -743,8 +930,17 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>42474280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -757,8 +953,17 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>56170031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -771,8 +976,17 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8">
+        <v>40845686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -785,8 +999,17 @@
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>40868998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -799,8 +1022,17 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <v>69260249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -813,8 +1045,17 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>74056713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -827,8 +1068,17 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>82209284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -841,8 +1091,17 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>45049819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -855,8 +1114,17 @@
       <c r="D14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>82148818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -869,8 +1137,17 @@
       <c r="D15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15">
+        <v>18588755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -883,8 +1160,17 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>24754525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -897,8 +1183,17 @@
       <c r="D17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>57786991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -911,8 +1206,17 @@
       <c r="D18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>12719012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -925,8 +1229,17 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19">
+        <v>79186772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -939,8 +1252,17 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>44899091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -953,9 +1275,46 @@
       <c r="D21" t="s">
         <v>61</v>
       </c>
+      <c r="E21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>48779595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:i8ovxn2f@gmail.com" xr:uid="{E7CAF321-2A65-41BB-B62A-6EB4E1716765}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:q4as80@outlook.com" xr:uid="{6BA7E4F3-991D-49F7-8B0F-2271A862E938}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:opu@outlook.com" xr:uid="{1E4B82E6-64B5-40E8-B85E-8376EAB7283E}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:5iar3l8k@yandex.ru" xr:uid="{DD01496A-178F-4D9B-B3B2-00867A801DA2}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:4zegxla@mail.ru" xr:uid="{4D0FAA15-F4F9-43D5-A409-0CCCEC935D62}"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:8lf0g@yandex.ru" xr:uid="{3664A59C-D18C-44BC-A6B1-31A7147CD06A}"/>
+    <hyperlink ref="E8" r:id="rId7" display="mailto:1zx8@yandex.ru" xr:uid="{9DE05419-F797-4712-95DC-42A44C954370}"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:x@mail.ru" xr:uid="{631B4B45-EB25-424C-BC02-01D7FC6E2702}"/>
+    <hyperlink ref="E10" r:id="rId9" display="mailto:34d@gmail.com" xr:uid="{E9F8247B-F52E-40AB-B09D-E99F96E9C9AB}"/>
+    <hyperlink ref="E11" r:id="rId10" display="mailto:pxacl@mail.ru" xr:uid="{9F4B498E-5423-49DE-B9C0-D3B364B32112}"/>
+    <hyperlink ref="E12" r:id="rId11" display="mailto:7o1@gmail.com" xr:uid="{B6ABF7BF-505B-4318-B3CF-5D05677CFADF}"/>
+    <hyperlink ref="E13" r:id="rId12" display="mailto:1@gmail.com" xr:uid="{AC69C6DC-19DA-4197-BC27-313251F05848}"/>
+    <hyperlink ref="E14" r:id="rId13" display="mailto:iut@gmail.com" xr:uid="{86D631F8-5322-49A8-B155-C37F2EFE2772}"/>
+    <hyperlink ref="E15" r:id="rId14" display="mailto:e3t@outlook.com" xr:uid="{616BB769-E924-49F4-B3A5-0A0380233C16}"/>
+    <hyperlink ref="E16" r:id="rId15" display="mailto:41clb6o2g@yandex.ru" xr:uid="{945922E1-4785-499D-AF28-829D2339E7AD}"/>
+    <hyperlink ref="E17" r:id="rId16" display="mailto:5hsbm8pi3@mail.ru" xr:uid="{033D4CE3-1AD3-4C67-B08D-D340F4DDB180}"/>
+    <hyperlink ref="E18" r:id="rId17" display="mailto:dihf8jxk@gmail.com" xr:uid="{EEB3603A-7C40-450B-98FC-1E809F30D828}"/>
+    <hyperlink ref="E19" r:id="rId18" display="mailto:dwej@yandex.ru" xr:uid="{91927F23-3887-4416-8A73-784D3C6C9E4F}"/>
+    <hyperlink ref="E20" r:id="rId19" display="mailto:zyue8brv@outlook.com" xr:uid="{2063C8F3-98EB-45B2-A431-E2C2B5E5374B}"/>
+    <hyperlink ref="E21" r:id="rId20" display="mailto:0a5437@mail.ru" xr:uid="{AFAD3DDD-554B-4167-B294-942E5844F688}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/med/excel_files/Kliniki.xlsx
+++ b/med/excel_files/Kliniki.xlsx
@@ -339,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +391,6 @@
       <name val="Roboto"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,11 +460,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -479,7 +470,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,13 +780,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="110.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="110.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1282,22 +1273,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="14"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
